--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3977.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3977.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.258667194131769</v>
+        <v>1.51305890083313</v>
       </c>
       <c r="B1">
-        <v>2.681909296445986</v>
+        <v>1.160800695419312</v>
       </c>
       <c r="C1">
-        <v>5.42377867024694</v>
+        <v>1.575078129768372</v>
       </c>
       <c r="D1">
-        <v>3.026699962750376</v>
+        <v>2.389882326126099</v>
       </c>
       <c r="E1">
-        <v>1.344902461621962</v>
+        <v>6.440203666687012</v>
       </c>
     </row>
   </sheetData>
